--- a/data/trans_dic/P2A_ner_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,8</t>
+          <t>3,34; 5,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,07</t>
+          <t>3,24; 6,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,83</t>
+          <t>6,09; 9,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,43; 12,26</t>
+          <t>7,17; 12,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,35; 8,14</t>
+          <t>5,51; 8,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,27</t>
+          <t>6,28; 9,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,2; 21,25</t>
+          <t>16,11; 21,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,9; 13,45</t>
+          <t>9,86; 13,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,88; 6,67</t>
+          <t>4,77; 6,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,43</t>
+          <t>5,42; 7,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 15,96</t>
+          <t>12,23; 15,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,27</t>
+          <t>9,33; 12,17</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,59</t>
+          <t>1,28; 2,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,83</t>
+          <t>1,59; 2,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,72</t>
+          <t>3,0; 4,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,85; 7,24</t>
+          <t>4,91; 7,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 4,77</t>
+          <t>2,78; 4,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,24</t>
+          <t>2,51; 4,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,72; 10,46</t>
+          <t>7,73; 10,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 26,27</t>
+          <t>6,36; 29,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,29</t>
+          <t>2,17; 3,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 3,26</t>
+          <t>2,26; 3,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 7,13</t>
+          <t>5,62; 7,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,12; 20,16</t>
+          <t>6,1; 18,2</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,79</t>
+          <t>1,37; 3,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,91</t>
+          <t>2,08; 5,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,1</t>
+          <t>1,8; 5,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,63</t>
+          <t>2,38; 5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,97</t>
+          <t>0,64; 3,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,21</t>
+          <t>1,55; 5,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 6,74</t>
+          <t>2,81; 6,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,47; 4,99</t>
+          <t>2,39; 4,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,87</t>
+          <t>1,19; 2,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 4,79</t>
+          <t>2,35; 5,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,2</t>
+          <t>2,7; 5,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,76; 4,84</t>
+          <t>2,79; 4,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,39</t>
+          <t>2,22; 3,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 3,75</t>
+          <t>2,44; 3,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,27</t>
+          <t>3,8; 5,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,19; 7,13</t>
+          <t>5,2; 7,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,87; 5,37</t>
+          <t>3,8; 5,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,75</t>
+          <t>4,23; 5,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,88; 12,08</t>
+          <t>9,91; 12,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 18,09</t>
+          <t>6,9; 22,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,14</t>
+          <t>3,2; 4,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,49</t>
+          <t>3,53; 4,5</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 8,52</t>
+          <t>7,17; 8,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 14,45</t>
+          <t>6,46; 14,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_ner_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Estudios-trans_dic.xlsx
@@ -671,12 +671,12 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -691,12 +691,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,59%</t>
+          <t>7,58%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>10,72%</t>
+          <t>6,46%</t>
         </is>
       </c>
     </row>
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,08</t>
+          <t>3,3; 6,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,24</t>
+          <t>5,59; 8,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,86; 13,44</t>
+          <t>6,26; 9,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 6,67</t>
+          <t>4,85; 6,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,33; 12,17</t>
+          <t>5,5; 7,7</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,19 +831,19 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>11,29%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>2,75%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
           <t>2,72%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,72%</t>
-        </is>
-      </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
           <t>6,33%</t>
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>7,9%</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 2,56</t>
+          <t>1,36; 2,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,91; 7,37</t>
+          <t>2,04; 4,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,36; 29,38</t>
+          <t>3,82; 41,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 3,36</t>
+          <t>2,2; 3,4</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 18,2</t>
+          <t>3,32; 24,23</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,56%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 5,6</t>
+          <t>1,56; 4,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 4,97</t>
+          <t>1,76; 4,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 4,84</t>
+          <t>2,0; 3,8</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1091,12 +1091,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,9%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>6,68%</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,28</t>
+          <t>2,26; 3,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1159,12 +1159,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 7,07</t>
+          <t>2,46; 3,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,33</t>
+          <t>3,85; 5,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 22,18</t>
+          <t>4,36; 31,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,13</t>
+          <t>3,24; 4,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,46; 14,39</t>
+          <t>3,75; 17,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_ner_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 5,84</t>
+          <t>3,32; 6,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,28</t>
+          <t>3,3; 6,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 9,91</t>
+          <t>6,06; 9,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,93</t>
+          <t>3,28; 6,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,33</t>
+          <t>5,42; 8,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,24</t>
+          <t>6,2; 9,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,11; 21,2</t>
+          <t>16,07; 21,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,26; 9,16</t>
+          <t>6,18; 8,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,85; 6,74</t>
+          <t>4,89; 6,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,42; 7,37</t>
+          <t>5,31; 7,32</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,69</t>
+          <t>12,24; 15,53</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,7</t>
+          <t>5,38; 7,59</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,64</t>
+          <t>1,36; 2,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,59; 2,94</t>
+          <t>1,58; 3,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 4,68</t>
+          <t>2,96; 4,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 4,02</t>
+          <t>2,05; 4,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,78; 4,63</t>
+          <t>2,78; 4,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,51; 4,23</t>
+          <t>2,53; 4,3</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,73; 10,43</t>
+          <t>7,85; 10,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 41,21</t>
+          <t>3,9; 37,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,4</t>
+          <t>2,23; 3,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,29</t>
+          <t>2,18; 3,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,18</t>
+          <t>5,56; 7,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,32; 24,23</t>
+          <t>3,31; 23,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,37; 3,86</t>
+          <t>1,46; 4,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,64</t>
+          <t>2,23; 6,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,8; 5,15</t>
+          <t>1,64; 4,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,24</t>
+          <t>1,59; 4,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,01</t>
+          <t>0,64; 2,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 5,08</t>
+          <t>1,59; 5,25</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,56</t>
+          <t>2,72; 6,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,76; 4,08</t>
+          <t>1,77; 4,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,93</t>
+          <t>1,22; 2,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 5,0</t>
+          <t>2,36; 5,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,07</t>
+          <t>2,58; 5,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 3,8</t>
+          <t>1,91; 3,69</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,35</t>
+          <t>2,22; 3,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,44; 3,71</t>
+          <t>2,45; 3,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,32</t>
+          <t>3,88; 5,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,99</t>
+          <t>2,46; 4,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,38</t>
+          <t>3,83; 5,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 5,71</t>
+          <t>4,24; 5,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,91; 12,13</t>
+          <t>9,96; 12,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 31,28</t>
+          <t>4,43; 27,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,18</t>
+          <t>3,25; 4,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,5</t>
+          <t>3,51; 4,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,17; 8,51</t>
+          <t>7,23; 8,54</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,75; 17,69</t>
+          <t>3,7; 16,69</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con problemas de nervios, depresión o trastorno mental</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45794</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43913</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>58600</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24847</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>89735</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>101607</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>184533</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>57245</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>135529</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>145519</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>243133</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>82092</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>34218; 62214</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>32156; 61553</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>45682; 74493</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>16865; 34736</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>71254; 107740</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>82985; 123534</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>159845; 211913</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>46695; 67934</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>114725; 158451</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>122684; 169232</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>214114; 271661</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>68359; 96490</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32222</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>42450</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>78094</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>69751</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>58068</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>58599</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>179247</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>287907</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>90290</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>101049</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>257341</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>357658</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22987; 45548</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>31043; 59840</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>61495; 98243</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46999; 92004</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>44089; 73763</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>44527; 75531</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>156035; 207786</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>87244; 836127</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>73251; 109460</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>81238; 122339</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>226116; 291085</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>149724; 1069555</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12903</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>17824</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>16480</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>17246</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>7151</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>14249</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24614</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>17975</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>20054</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>32073</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>41094</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>35220</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8070; 22544</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10754; 28962</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8950; 27135</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10269; 28768</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3037; 14179</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7290; 24081</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14963; 35891</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11667; 28511</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12521; 30068</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22154; 48184</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>28277; 56657</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24909; 48286</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>90919</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>104188</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>153173</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111843</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>154955</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>174454</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>388395</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>363127</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>245873</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>278642</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>541568</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>474971</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>72645; 111320</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>83723; 128065</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>131129; 177404</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>84800; 139246</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>129417; 181201</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>150708; 202115</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>351646; 427379</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>161898; 988686</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>216538; 278899</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>244741; 313242</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>499749; 589795</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>262695; 1186078</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>